--- a/output.xlsx
+++ b/output.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB6"/>
+  <dimension ref="A1:CA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,17 +829,12 @@
           <t>MVRViolations-1</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>SumTruckAndUnitNumber</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CODE837</t>
+          <t>ks</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -925,8 +916,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="V2" s="2" t="n">
-        <v>45515</v>
+      <c r="V2" t="n">
+        <v>7</v>
       </c>
       <c r="W2" t="n">
         <v>40436.82</v>
@@ -1139,12 +1130,12 @@
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>devyani</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>deshpande</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
@@ -1160,11 +1151,8 @@
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="CB2" t="n">
-        <v>16</v>
+          <t>yes</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1175,7 +1163,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CODE517</t>
+          <t>ks</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1257,8 +1245,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="V3" s="2" t="n">
-        <v>45436</v>
+      <c r="V3" t="n">
+        <v>6</v>
       </c>
       <c r="W3" t="n">
         <v>38764.79</v>
@@ -1459,12 +1447,12 @@
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>devyani</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>deshpande</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
@@ -1480,11 +1468,8 @@
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="CB3" t="n">
-        <v>21</v>
+          <t>yes</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1495,7 +1480,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CODE974</t>
+          <t>ks</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1573,8 +1558,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="V4" s="2" t="n">
-        <v>45314</v>
+      <c r="V4" t="n">
+        <v>6</v>
       </c>
       <c r="W4" t="n">
         <v>24879.51</v>
@@ -1771,12 +1756,12 @@
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>devyani</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>Eve</t>
+          <t>deshpande</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr"/>
@@ -1791,9 +1776,6 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="CB4" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1803,7 +1785,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CODE143</t>
+          <t>ks</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1885,8 +1867,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="V5" s="2" t="n">
-        <v>45587</v>
+      <c r="V5" t="n">
+        <v>5</v>
       </c>
       <c r="W5" t="n">
         <v>67372.2</v>
@@ -2087,12 +2069,12 @@
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>devyani</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>deshpande</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
@@ -2106,16 +2088,17 @@
       <c r="BZ5" t="n">
         <v>4877</v>
       </c>
-      <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="n">
-        <v>20</v>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CODE112</t>
+          <t>ks</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2197,8 +2180,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="V6" s="2" t="n">
-        <v>45354</v>
+      <c r="V6" t="n">
+        <v>6</v>
       </c>
       <c r="W6" t="n">
         <v>86449.14999999999</v>
@@ -2395,12 +2378,12 @@
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>devyani</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>deshpande</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
@@ -2415,9 +2398,6 @@
         <v>3826</v>
       </c>
       <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="n">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
